--- a/medicine/Mort/Cimetière_Rem_ou/Cimetière_Rem_ou.xlsx
+++ b/medicine/Mort/Cimetière_Rem_ou/Cimetière_Rem_ou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Rem%22ou</t>
+          <t>Cimetière_Rem"ou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Rem"ou[1], également connu sous le nom d'ancien cimetière juif de Cracovie, est un cimetière juif inactif établi en 1535 dans la ville de Cracovie, en Pologne. Il se situe dans le quartier historique de Kazimierz, près de la synagogue Rem"ou, au 40, rue Szeroka. En 1800, le cimetière est fermé et le nouveau cimetière juif est construit au 55, rue Midowa. Izaak Jakubowicz, le donateur de la Synagogue Isaac Jakubowicz y est enterré.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Rem"ou, également connu sous le nom d'ancien cimetière juif de Cracovie, est un cimetière juif inactif établi en 1535 dans la ville de Cracovie, en Pologne. Il se situe dans le quartier historique de Kazimierz, près de la synagogue Rem"ou, au 40, rue Szeroka. En 1800, le cimetière est fermé et le nouveau cimetière juif est construit au 55, rue Midowa. Izaak Jakubowicz, le donateur de la Synagogue Isaac Jakubowicz y est enterré.
 Pendant l'occupation allemande de la Pologne, les nazis ont détruit le cimetière, démolissant les murs et vendant les pierres tombales pour être utilisées comme des pavés. La pierre tombale du rabbin Moïse Isserlès est une des rares qui est restée intacte. Le cimetière a subi une série de restaurations pendant l'après-guerre. Les pierres tombales vendues pour être utilisées comme des pavés ont été rendues et reconstruites au cimetière, bien qu'elles ne reconstituent qu'une partie des tombes qui s'y dressaient autrefois.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Rem%22ou</t>
+          <t>Cimetière_Rem"ou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités inhumées au cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cimetière contient les tombes des personnalités juives polonaises suivantes :
 Moïse Isserlès (1525-1572), rabbin resté à Kazimierz avec sa famille.
